--- a/SB_Squares_2024.xlsx
+++ b/SB_Squares_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/gian_favero_mail_mcgill_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmari\Documents\Repos\sb-squares-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EFF809C9-8A14-4674-B6A1-4BE51B6E742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B42E1-8A57-4132-A9EC-20DF3209F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB_Squares_2024" sheetId="1" r:id="rId1"/>
@@ -20,42 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Participants</t>
-  </si>
-  <si>
-    <t>Gian Favero</t>
-  </si>
-  <si>
-    <t>Noah Scholl</t>
-  </si>
-  <si>
-    <t>Thomas Byrne</t>
-  </si>
-  <si>
-    <t>Andrew Ogley</t>
-  </si>
-  <si>
-    <t>Adrian Iannetta</t>
-  </si>
-  <si>
-    <t>Brayden Amlin</t>
-  </si>
-  <si>
-    <t>Robert McVinnie</t>
-  </si>
-  <si>
-    <t>Steven Caro</t>
-  </si>
-  <si>
-    <t>Matt Ammoscato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,13 +723,13 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,12 +750,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,12 +757,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,8 +770,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -822,6 +783,18 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1603,19 +1576,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:M13" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C3:M13" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" name="Column1" headerRowDxfId="13" dataDxfId="10"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="14" dataDxfId="9"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="15" dataDxfId="8"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="16" dataDxfId="7"/>
-    <tableColumn id="5" name="Column5" headerRowDxfId="17" dataDxfId="6"/>
-    <tableColumn id="6" name="Column6" headerRowDxfId="18" dataDxfId="5"/>
-    <tableColumn id="7" name="Column7" headerRowDxfId="19" dataDxfId="4"/>
-    <tableColumn id="8" name="Column8" headerRowDxfId="20" dataDxfId="3"/>
-    <tableColumn id="9" name="Column9" headerRowDxfId="21" dataDxfId="2"/>
-    <tableColumn id="10" name="Column10" headerRowDxfId="22" dataDxfId="1"/>
-    <tableColumn id="11" name="Column11" headerRowDxfId="23" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1917,14 +1890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="O4" sqref="O4:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,44 +1909,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="121.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="112.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1">
         <v>2024</v>
       </c>
@@ -2004,18 +1977,18 @@
       <c r="L3" s="2">
         <v>8</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="13">
         <v>9</v>
       </c>
-      <c r="N3" s="24"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="23"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -2028,16 +2001,14 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="23"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -2050,16 +2021,14 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="23"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -2072,16 +2041,14 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="23"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -2094,16 +2061,14 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="23"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -2116,16 +2081,14 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="23"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2">
         <v>5</v>
       </c>
@@ -2138,16 +2101,14 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="23"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2">
         <v>6</v>
       </c>
@@ -2160,16 +2121,14 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="23"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2">
         <v>7</v>
       </c>
@@ -2182,16 +2141,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="23"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="2">
         <v>8</v>
       </c>
@@ -2204,50 +2161,48 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="5" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="10">
         <v>9</v>
       </c>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="24"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="23"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/SB_Squares_2024.xlsx
+++ b/SB_Squares_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmari\Documents\Repos\sb-squares-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B42E1-8A57-4132-A9EC-20DF3209F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF7F48-407C-4F31-B09C-8E787329A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB_Squares_2024" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>Participants</t>
+  </si>
+  <si>
+    <t>Favero, Gian</t>
+  </si>
+  <si>
+    <t>Ogley, Andrew</t>
+  </si>
+  <si>
+    <t>Iannetta, Adrian</t>
+  </si>
+  <si>
+    <t>Ammoscato, Matt</t>
+  </si>
+  <si>
+    <t>Amlin, Brayden</t>
+  </si>
+  <si>
+    <t>Byrne, Thomas</t>
+  </si>
+  <si>
+    <t>Caro, Steven</t>
+  </si>
+  <si>
+    <t>Hill, Stevie</t>
+  </si>
+  <si>
+    <t>Scholl, Noah</t>
+  </si>
+  <si>
+    <t>McVinnie, Robert</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
 </sst>
 </file>
@@ -179,13 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Amasis MT Pro Black"/>
@@ -196,6 +249,13 @@
       <color theme="1"/>
       <name val="Bodoni MT"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -723,15 +783,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -744,7 +795,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -775,13 +826,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,19 +1956,19 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="13" width="9" customWidth="1"/>
-    <col min="15" max="15" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="121.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="121.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1926,9 +1986,9 @@
       <c r="O1" s="24"/>
       <c r="P1" s="25"/>
     </row>
-    <row r="2" spans="1:16" ht="112.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:16" ht="112.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -1940,269 +2000,489 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="27"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="19"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+    <row r="3" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="1">
+      <c r="C3" s="20">
         <v>2024</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="21">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="21">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="21">
         <v>4</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="21">
         <v>5</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="21">
         <v>6</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="21">
         <v>7</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="21">
         <v>8</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>9</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="8" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="19"/>
+      <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="2">
+      <c r="C4" s="21">
         <v>0</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="19"/>
+      <c r="D4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="2">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="19"/>
+      <c r="D5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="2">
+      <c r="C6" s="21">
         <v>2</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="19"/>
+      <c r="D6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="2">
+      <c r="C7" s="21">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="19"/>
+      <c r="D7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="B8" s="28"/>
-      <c r="C8" s="2">
+      <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="19"/>
+      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="2">
+      <c r="C9" s="21">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="19"/>
+      <c r="D9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="2">
+      <c r="C10" s="21">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="19"/>
+      <c r="D10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="2">
+      <c r="C11" s="21">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="19"/>
+      <c r="D11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="2">
+      <c r="C12" s="21">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="19"/>
+      <c r="D12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:16" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="19"/>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
+    <row r="14" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2211,7 +2491,7 @@
     <mergeCell ref="B3:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/SB_Squares_2024.xlsx
+++ b/SB_Squares_2024.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmari\Documents\Repos\sb-squares-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF7F48-407C-4F31-B09C-8E787329A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AC418-9AC9-4561-AD66-72F121D53F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB_Squares_2024" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1957,7 +1970,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SB_Squares_2024.xlsx
+++ b/SB_Squares_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmari\Documents\Repos\sb-squares-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AC418-9AC9-4561-AD66-72F121D53F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CB575-7F91-43F4-92AF-0AA8FDBA578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,15 +839,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,6 +859,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1651,17 +1651,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C3:M13" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="21" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="20" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="19" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="18" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" headerRowDxfId="17" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" headerRowDxfId="16" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" headerRowDxfId="15" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" headerRowDxfId="14" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" headerRowDxfId="13" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" headerRowDxfId="12" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" headerRowDxfId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1970,7 +1970,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,72 +1982,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="121.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" ht="112.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
       <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="20">
+      <c r="B3" s="25"/>
+      <c r="C3" s="27">
         <v>2024</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="28">
         <v>1</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="28">
         <v>2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="28">
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="28">
         <v>4</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="28">
         <v>5</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="28">
         <v>6</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="28">
         <v>7</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="28">
         <v>8</v>
       </c>
       <c r="M3" s="10">
@@ -2061,35 +2061,35 @@
     </row>
     <row r="4" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="21">
+      <c r="B4" s="25"/>
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="29" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="11" t="s">
@@ -2103,36 +2103,36 @@
     </row>
     <row r="5" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="21">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>17</v>
+      <c r="L5" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>14</v>
@@ -2145,39 +2145,39 @@
     </row>
     <row r="6" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="21">
+      <c r="B6" s="25"/>
+      <c r="C6" s="28">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="M6" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="1" t="s">
@@ -2187,35 +2187,35 @@
     </row>
     <row r="7" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="21">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="29" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -2229,161 +2229,161 @@
     </row>
     <row r="8" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="21">
+      <c r="B8" s="25"/>
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>12</v>
+      <c r="L8" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="21">
+      <c r="B9" s="25"/>
+      <c r="C9" s="28">
         <v>5</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="29" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="17"/>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="21">
+      <c r="B10" s="25"/>
+      <c r="C10" s="28">
         <v>6</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="29" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="17"/>
-      <c r="O10" s="1" t="s">
-        <v>1</v>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="21">
+      <c r="B11" s="25"/>
+      <c r="C11" s="28">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="G11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="29" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="11" t="s">
@@ -2397,35 +2397,35 @@
     </row>
     <row r="12" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="21">
+      <c r="B12" s="25"/>
+      <c r="C12" s="28">
         <v>8</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="29" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="11" t="s">
@@ -2439,7 +2439,7 @@
     </row>
     <row r="13" spans="1:16" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="7">
         <v>9</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>14</v>
@@ -2459,7 +2459,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>20</v>
